--- a/medicine/Autisme/Hôpital_de_jour_Santos-Dumont/Hôpital_de_jour_Santos-Dumont.xlsx
+++ b/medicine/Autisme/Hôpital_de_jour_Santos-Dumont/Hôpital_de_jour_Santos-Dumont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_jour_Santos-Dumont</t>
+          <t>Hôpital_de_jour_Santos-Dumont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L′hôpital de jour Santos-Dumont est le premier hôpital de jour privé français dédié spécifiquement à l'accueil des enfants, adolescents et jeunes adultes autistes. Il ouvre en 1963, rue Santos-Dumont dans le 15e arrondissement de Paris, à la demande de l'Association au service des inadaptés ayant des troubles de la personnalité (ASITP)[1],[2], en collaboration avec l'éducatrice Rose Gaetner et avec le parrainage du Pr Serge Lebovici[3]. 
-À l'origine réservé aux enfants[4], il est étendu en 1990 aux adolescents, pour répondre à la demande des parents[3].  
-La psychomotricienne Rose Gaetner a introduit la danse comme activité de thérapie dans cet hôpital[5]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L′hôpital de jour Santos-Dumont est le premier hôpital de jour privé français dédié spécifiquement à l'accueil des enfants, adolescents et jeunes adultes autistes. Il ouvre en 1963, rue Santos-Dumont dans le 15e arrondissement de Paris, à la demande de l'Association au service des inadaptés ayant des troubles de la personnalité (ASITP) en collaboration avec l'éducatrice Rose Gaetner et avec le parrainage du Pr Serge Lebovici. 
+À l'origine réservé aux enfants, il est étendu en 1990 aux adolescents, pour répondre à la demande des parents.  
+La psychomotricienne Rose Gaetner a introduit la danse comme activité de thérapie dans cet hôpital. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_jour_Santos-Dumont</t>
+          <t>Hôpital_de_jour_Santos-Dumont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Prises de position</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1997, Moïse Assouline, médecin-directeur du service de l'hôpital de jour Santos-Dumont à l'époque, déclare dans l'hebdomadaire L'Express que « les restrictions budgétaires décidées par Alain Juppé, fin 1995, sont passées comme un bulldozer sur l'autisme, pourtant consacré quelques mois plus tôt priorité de santé publique »[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1997, Moïse Assouline, médecin-directeur du service de l'hôpital de jour Santos-Dumont à l'époque, déclare dans l'hebdomadaire L'Express que « les restrictions budgétaires décidées par Alain Juppé, fin 1995, sont passées comme un bulldozer sur l'autisme, pourtant consacré quelques mois plus tôt priorité de santé publique ».
 </t>
         </is>
       </c>
